--- a/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,11 +505,6 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Sales Volume Rank</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
           <t>Lifecycle Stage</t>
         </is>
       </c>
@@ -520,7 +515,11 @@
           <t>W1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>B0BH6XND27</t>
@@ -553,7 +552,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6.9</v>
+        <v>8.35</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -571,14 +570,11 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>8</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Growth</t>
+        <v>1.16</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Decline</t>
         </is>
       </c>
     </row>
@@ -588,7 +584,11 @@
           <t>W2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>B0BH6XND27</t>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6.9</v>
+        <v>6.56</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -639,14 +639,11 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>8</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Growth</t>
+        <v>0.87</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Decline</t>
         </is>
       </c>
     </row>
@@ -656,7 +653,11 @@
           <t>W3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>B0BH6XND27</t>
@@ -689,7 +690,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6.9</v>
+        <v>4.62</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -707,14 +708,11 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>8</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Growth</t>
+        <v>0.95</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Decline</t>
         </is>
       </c>
     </row>
@@ -724,7 +722,11 @@
           <t>W4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>B0BH6XND27</t>
@@ -757,7 +759,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6.9</v>
+        <v>3.49</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -777,12 +779,9 @@
       <c r="P5" t="n">
         <v>0.91</v>
       </c>
-      <c r="Q5" t="n">
-        <v>8</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Growth</t>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Decline</t>
         </is>
       </c>
     </row>
@@ -792,7 +791,11 @@
           <t>W5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>B0BH6XND27</t>
@@ -825,7 +828,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6.9</v>
+        <v>2.46</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -843,14 +846,11 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>8</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Growth</t>
+        <v>1.13</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Decline</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,11 @@
           <t>W6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>B0BH6XND27</t>
@@ -893,7 +897,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6.9</v>
+        <v>1.49</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -911,14 +915,11 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>8</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Growth</t>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Decline</t>
         </is>
       </c>
     </row>
@@ -928,7 +929,11 @@
           <t>W7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>B0BH6XND27</t>
@@ -961,16 +966,16 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6.9</v>
+        <v>0.47</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -979,14 +984,11 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>8</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Growth</t>
+        <v>0.87</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Decline</t>
         </is>
       </c>
     </row>
@@ -996,7 +998,11 @@
           <t>W8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>B0BH6XND27</t>
@@ -1029,16 +1035,16 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1047,14 +1053,11 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>8</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Growth</t>
+        <v>0.8</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Decline</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1067,11 @@
           <t>W9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>B0BH6XND27</t>
@@ -1097,16 +1104,16 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1117,12 +1124,9 @@
       <c r="P10" t="n">
         <v>1.15</v>
       </c>
-      <c r="Q10" t="n">
-        <v>8</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Growth</t>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Decline</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1136,11 @@
           <t>W10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>B0BH6XND27</t>
@@ -1165,16 +1173,16 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1183,14 +1191,11 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>8</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Growth</t>
+        <v>0.83</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Decline</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1205,11 @@
           <t>W11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>B0BH6XND27</t>
@@ -1233,16 +1242,16 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1251,14 +1260,11 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>8</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Growth</t>
+        <v>1.07</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Decline</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1274,11 @@
           <t>W12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>B0BH6XND27</t>
@@ -1301,16 +1311,16 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1319,14 +1329,11 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>8</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Growth</t>
+        <v>0.84</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Decline</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1343,11 @@
           <t>W13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>B0BH6XND27</t>
@@ -1369,16 +1380,16 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,14 +1398,11 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>8</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Growth</t>
+        <v>1.13</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Decline</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1412,11 @@
           <t>W14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>B0BH6XND27</t>
@@ -1437,16 +1449,16 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1455,14 +1467,11 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>8</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Growth</t>
+        <v>1.02</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Decline</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1481,11 @@
           <t>W15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>B0BH6XND27</t>
@@ -1505,16 +1518,16 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1523,14 +1536,11 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>8</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Growth</t>
+        <v>0.84</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Decline</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1550,11 @@
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>B0BH6XND27</t>
@@ -1573,16 +1587,16 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1591,14 +1605,11 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>8</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Growth</t>
+        <v>1.03</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Decline</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1784,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1808,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1.16</v>
+        <v>0.93</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.91</v>
+        <v>1.13</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8</v>
+        <v>1.12</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1.15</v>
+        <v>0.93</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.83</v>
+        <v>1.19</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1.13</v>
+        <v>0.82</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>

--- a/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
@@ -512,7 +512,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W1</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E2" t="n">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="F2" t="n">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="G2" t="n">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="H2" t="n">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>8.35</v>
+        <v>11.15</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.93</v>
+        <v>1.08</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -581,7 +581,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -595,19 +595,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E3" t="n">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="F3" t="n">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="G3" t="n">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="H3" t="n">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6.56</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.88</v>
+        <v>1.04</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -664,19 +664,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E4" t="n">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="F4" t="n">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="G4" t="n">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="H4" t="n">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4.62</v>
+        <v>6.98</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -733,19 +733,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="F5" t="n">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="G5" t="n">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="H5" t="n">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.49</v>
+        <v>5.23</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1.13</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W5</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F6" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G6" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H6" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.46</v>
+        <v>4.96</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -871,19 +871,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F7" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G7" t="n">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H7" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.49</v>
+        <v>4</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W7</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E8" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F8" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G8" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H8" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -966,16 +966,16 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.47</v>
+        <v>2.97</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.9</v>
+        <v>1.17</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W8</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1009,19 +1009,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E9" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F9" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G9" t="n">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H9" t="n">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1035,16 +1035,16 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W9</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1078,19 +1078,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E10" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F10" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G10" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H10" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1104,11 +1104,11 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1147,19 +1147,19 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>133</v>
+      </c>
+      <c r="E11" t="n">
+        <v>103</v>
+      </c>
+      <c r="F11" t="n">
         <v>124</v>
       </c>
-      <c r="E11" t="n">
-        <v>99</v>
-      </c>
-      <c r="F11" t="n">
-        <v>120</v>
-      </c>
       <c r="G11" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H11" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1.19</v>
+        <v>0.92</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1216,19 +1216,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E12" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G12" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H12" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1285,19 +1285,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E13" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F13" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G13" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H13" t="n">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1354,19 +1354,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E14" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F14" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G14" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H14" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1423,19 +1423,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E15" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F15" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G15" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H15" t="n">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1.15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1492,19 +1492,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E16" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F16" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G16" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H16" t="n">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.87</v>
+        <v>1.01</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1561,19 +1561,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E17" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F17" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G17" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H17" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>2113</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>1077</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>527</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>108</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,65 +445,45 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Amazon Mean Forecast</t>
+          <t>Product Title</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Amazon P70 Forecast</t>
+          <t>is_holiday_week</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Amazon P80 Forecast</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Amazon P90 Forecast</t>
+          <t>Inventory Coverage</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Product Title</t>
+          <t>Stockout Risk</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>is_holiday_week</t>
+          <t>Reorder Urgency</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Sales Trend</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Inventory Coverage</t>
+          <t>Seasonality Index</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
-        <is>
-          <t>Stockout Risk</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Reorder Urgency</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Sales Trend</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Seasonality Index</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
         <is>
           <t>Lifecycle Stage</t>
         </is>
@@ -512,12 +492,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -526,53 +506,41 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>108</v>
-      </c>
-      <c r="E2" t="n">
-        <v>119</v>
-      </c>
-      <c r="F2" t="n">
-        <v>140</v>
-      </c>
-      <c r="G2" t="n">
-        <v>160</v>
+        <v>123</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>189</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>11.15</v>
+        <v>1.05</v>
       </c>
       <c r="M2" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Q2" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -581,12 +549,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W7</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -595,53 +563,41 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>119</v>
-      </c>
-      <c r="E3" t="n">
-        <v>132</v>
-      </c>
-      <c r="F3" t="n">
-        <v>158</v>
-      </c>
-      <c r="G3" t="n">
-        <v>184</v>
+        <v>146</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>226</v>
+        <v>7.4</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>9.210000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="M3" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Q3" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -650,12 +606,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W8</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -664,53 +620,41 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>140</v>
-      </c>
-      <c r="E4" t="n">
-        <v>138</v>
-      </c>
-      <c r="F4" t="n">
-        <v>166</v>
-      </c>
-      <c r="G4" t="n">
-        <v>194</v>
+        <v>170</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>238</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6.98</v>
+        <v>0.96</v>
       </c>
       <c r="M4" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Q4" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -719,12 +663,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W9</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -733,53 +677,41 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>160</v>
-      </c>
-      <c r="E5" t="n">
-        <v>139</v>
-      </c>
-      <c r="F5" t="n">
-        <v>166</v>
-      </c>
-      <c r="G5" t="n">
-        <v>195</v>
+        <v>180</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>240</v>
+        <v>4.23</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5.23</v>
+        <v>0.84</v>
       </c>
       <c r="M5" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Q5" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -788,12 +720,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -804,51 +736,39 @@
       <c r="D6" t="n">
         <v>136</v>
       </c>
-      <c r="E6" t="n">
-        <v>105</v>
-      </c>
-      <c r="F6" t="n">
-        <v>125</v>
-      </c>
-      <c r="G6" t="n">
-        <v>146</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>179</v>
+        <v>4.28</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4.96</v>
+        <v>0.91</v>
       </c>
       <c r="M6" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Q6" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -857,12 +777,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -873,51 +793,39 @@
       <c r="D7" t="n">
         <v>135</v>
       </c>
-      <c r="E7" t="n">
-        <v>104</v>
-      </c>
-      <c r="F7" t="n">
-        <v>124</v>
-      </c>
-      <c r="G7" t="n">
-        <v>146</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>178</v>
+        <v>3.31</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>0.83</v>
       </c>
       <c r="M7" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Q7" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -926,12 +834,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -942,51 +850,39 @@
       <c r="D8" t="n">
         <v>136</v>
       </c>
-      <c r="E8" t="n">
-        <v>105</v>
-      </c>
-      <c r="F8" t="n">
-        <v>127</v>
-      </c>
-      <c r="G8" t="n">
-        <v>150</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>186</v>
+        <v>2.29</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.97</v>
+        <v>0.92</v>
       </c>
       <c r="M8" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Q8" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -995,12 +891,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1011,51 +907,39 @@
       <c r="D9" t="n">
         <v>141</v>
       </c>
-      <c r="E9" t="n">
-        <v>109</v>
-      </c>
-      <c r="F9" t="n">
-        <v>132</v>
-      </c>
-      <c r="G9" t="n">
-        <v>158</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>199</v>
+        <v>1.24</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.9</v>
+        <v>0.82</v>
       </c>
       <c r="M9" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Q9" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1064,12 +948,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1078,53 +962,41 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>137</v>
-      </c>
-      <c r="E10" t="n">
-        <v>106</v>
-      </c>
-      <c r="F10" t="n">
-        <v>127</v>
-      </c>
-      <c r="G10" t="n">
-        <v>150</v>
+        <v>130</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>184</v>
+        <v>0.26</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Urgent</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="M10" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Urgent</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Q10" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1133,12 +1005,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1147,53 +1019,41 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>133</v>
-      </c>
-      <c r="E11" t="n">
-        <v>103</v>
-      </c>
-      <c r="F11" t="n">
-        <v>124</v>
-      </c>
-      <c r="G11" t="n">
-        <v>149</v>
+        <v>123</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Urgent</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M11" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Urgent</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Q11" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1202,12 +1062,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1216,53 +1076,41 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>132</v>
-      </c>
-      <c r="E12" t="n">
-        <v>102</v>
-      </c>
-      <c r="F12" t="n">
-        <v>123</v>
-      </c>
-      <c r="G12" t="n">
-        <v>147</v>
+        <v>126</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Urgent</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="M12" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Urgent</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Q12" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1271,12 +1119,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1287,51 +1135,39 @@
       <c r="D13" t="n">
         <v>135</v>
       </c>
-      <c r="E13" t="n">
-        <v>104</v>
-      </c>
-      <c r="F13" t="n">
-        <v>126</v>
-      </c>
-      <c r="G13" t="n">
-        <v>151</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Urgent</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="M13" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Urgent</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Q13" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1340,12 +1176,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1356,51 +1192,39 @@
       <c r="D14" t="n">
         <v>128</v>
       </c>
-      <c r="E14" t="n">
-        <v>99</v>
-      </c>
-      <c r="F14" t="n">
-        <v>120</v>
-      </c>
-      <c r="G14" t="n">
-        <v>143</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Urgent</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Urgent</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q14" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1409,12 +1233,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1425,51 +1249,39 @@
       <c r="D15" t="n">
         <v>123</v>
       </c>
-      <c r="E15" t="n">
-        <v>95</v>
-      </c>
-      <c r="F15" t="n">
-        <v>116</v>
-      </c>
-      <c r="G15" t="n">
-        <v>140</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Urgent</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M15" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Urgent</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Q15" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1478,12 +1290,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1492,53 +1304,41 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>124</v>
-      </c>
-      <c r="E16" t="n">
-        <v>96</v>
-      </c>
-      <c r="F16" t="n">
-        <v>117</v>
-      </c>
-      <c r="G16" t="n">
-        <v>140</v>
+        <v>118</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Urgent</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="M16" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Urgent</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Q16" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1547,12 +1347,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1561,53 +1361,41 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>119</v>
-      </c>
-      <c r="E17" t="n">
-        <v>92</v>
-      </c>
-      <c r="F17" t="n">
         <v>111</v>
       </c>
-      <c r="G17" t="n">
-        <v>134</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H17" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Urgent</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="M17" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Urgent</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Q17" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1652,7 +1440,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-26</t>
+          <t>2022-12-25 to 2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1512,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15289 units</t>
+          <t>15331 units</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2113</t>
+          <t>2165</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1077</t>
+          <t>1170</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>620</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>181</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>111</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.95</v>
+        <v>1.08</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.96</v>
+        <v>1.1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.84</v>
+        <v>1.05</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.91</v>
+        <v>1.03</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.82</v>
+        <v>1.17</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.92</v>
+        <v>1.2</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.84</v>
+        <v>1.04</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>

--- a/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
@@ -492,12 +492,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W7</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9.789999999999999</v>
+        <v>12.11</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.07</v>
+        <v>0.92</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -549,12 +549,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W8</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7.4</v>
+        <v>9.9</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.08</v>
+        <v>0.89</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -606,12 +606,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W9</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>11.64</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -663,12 +663,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4.23</v>
+        <v>9.31</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -720,12 +720,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4.28</v>
+        <v>8.41</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -777,12 +777,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3.31</v>
+        <v>7.81</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -834,12 +834,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2.29</v>
+        <v>6.72</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.91</v>
+        <v>1.13</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -891,12 +891,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.24</v>
+        <v>5.72</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.17</v>
+        <v>0.96</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -948,12 +948,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.26</v>
+        <v>4.98</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.16</v>
+        <v>0.88</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1005,12 +1005,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,16 +1033,16 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1062,12 +1062,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,16 +1090,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1119,12 +1119,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1147,16 +1147,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1176,12 +1176,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1204,11 +1204,11 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1233,12 +1233,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1290,12 +1290,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1347,12 +1347,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W23</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-02-02</t>
+          <t>2022-12-25 to 2025-02-09</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>295</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15331 units</t>
+          <t>15362 units</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2165</t>
+          <t>1541</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>818</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>420</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>119</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>84</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>12.11</v>
+        <v>14.93</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>11.64</v>
+        <v>11.81</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>0.86</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9.31</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.04</v>
+        <v>0.92</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.41</v>
+        <v>8.56</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.81</v>
+        <v>7.97</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.92</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.72</v>
+        <v>6.88</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.72</v>
+        <v>5.88</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.96</v>
+        <v>1.18</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4.98</v>
+        <v>5.54</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3.98</v>
+        <v>4.29</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2.98</v>
+        <v>3.23</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.93</v>
+        <v>2.17</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.99</v>
+        <v>1.26</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.19</v>
+        <v>0.95</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.19</v>
+        <v>0.92</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.16</v>
+        <v>0.99</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.15</v>
+        <v>0.82</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>1479</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>802</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>404</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>69</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>14.93</v>
+        <v>14.27</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.08</v>
+        <v>0.95</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9.699999999999999</v>
+        <v>9.67</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>11.81</v>
+        <v>11.76</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.86</v>
+        <v>1.15</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9.460000000000001</v>
+        <v>9.42</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.56</v>
+        <v>8.52</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.85</v>
+        <v>1.2</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.97</v>
+        <v>7.93</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>0.84</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.88</v>
+        <v>6.84</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.13</v>
+        <v>0.92</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.18</v>
+        <v>0.8</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5.54</v>
+        <v>5.56</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4.29</v>
+        <v>4.36</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.99</v>
+        <v>1.08</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.9</v>
+        <v>1.14</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0.92</v>
+        <v>1.2</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0.82</v>
+        <v>1.16</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1479</t>
+          <t>1454</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>806</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>408</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>61</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>14.27</v>
+        <v>13.1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9.67</v>
+        <v>9.6</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>11.76</v>
+        <v>11.68</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.15</v>
+        <v>0.84</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9.42</v>
+        <v>9.34</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.52</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>0.84</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.93</v>
+        <v>7.84</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.84</v>
+        <v>6.75</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.88</v>
+        <v>5.75</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5.56</v>
+        <v>5.02</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.09</v>
+        <v>0.89</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4.36</v>
+        <v>4.02</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.23</v>
+        <v>3.02</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2.17</v>
+        <v>1.96</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.26</v>
+        <v>1.03</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.91</v>
+        <v>1.18</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.16</v>
+        <v>0.92</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1454</t>
+          <t>1521</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>814</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>416</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>76</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
@@ -492,12 +492,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W8</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>13.1</v>
+        <v>7.66</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -549,12 +549,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W9</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9.6</v>
+        <v>8.06</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -606,12 +606,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>11.68</v>
+        <v>6.83</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -663,12 +663,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9.34</v>
+        <v>5.77</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>0.83</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -720,12 +720,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.449999999999999</v>
+        <v>4.67</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -777,12 +777,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.84</v>
+        <v>4.54</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -834,12 +834,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.75</v>
+        <v>3.97</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.86</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -891,12 +891,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.75</v>
+        <v>2.81</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -948,12 +948,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5.02</v>
+        <v>1.6</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1005,12 +1005,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4.02</v>
+        <v>0.59</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1062,12 +1062,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,16 +1090,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1119,12 +1119,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1147,16 +1147,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1176,12 +1176,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1204,16 +1204,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1233,12 +1233,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W23</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.17</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1290,12 +1290,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W24</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.18</v>
+        <v>0.96</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1347,12 +1347,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>W25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0.92</v>
+        <v>1.13</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-02-09</t>
+          <t>2022-12-25 to 2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>305</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15362 units</t>
+          <t>15587 units</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1521</t>
+          <t>1568</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>913</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>502</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>67</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.04</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4.54</v>
+        <v>4.28</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3.97</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2.81</v>
+        <v>2.45</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,11 +1033,11 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.59</v>
+        <v>0.32</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.99</v>
+        <v>1.09</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.18</v>
+        <v>0.99</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.88</v>
+        <v>1.07</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>1648</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>74</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7.66</v>
+        <v>11.83</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8.06</v>
+        <v>10.81</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6.83</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5.77</v>
+        <v>8.99</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.93</v>
+        <v>1.05</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4.67</v>
+        <v>8.17</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.82</v>
+        <v>1.08</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4.28</v>
+        <v>7.43</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>6.53</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2.45</v>
+        <v>5.48</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1.32</v>
+        <v>4.39</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,16 +1033,16 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.32</v>
+        <v>3.36</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,16 +1090,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1147,16 +1147,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.99</v>
+        <v>1.1</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.07</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.92</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.19</v>
+        <v>0.93</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>1374</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>706</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>365</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>82</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>11.83</v>
+        <v>98.64</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10.81</v>
+        <v>119.33</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>0.9</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9.869999999999999</v>
+        <v>118.33</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8.99</v>
+        <v>117.33</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.17</v>
+        <v>104.7</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.43</v>
+        <v>115.22</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.53</v>
+        <v>114.22</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.48</v>
+        <v>101.9</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4.39</v>
+        <v>112.11</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3.36</v>
+        <v>111.11</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2.41</v>
+        <v>110.11</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.45</v>
+        <v>109.11</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1204,16 +1204,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.46</v>
+        <v>108.11</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1261,16 +1261,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>120.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>106.22</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>0.86</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1375,16 +1375,16 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>118.38</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>146</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>8</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>98.64</v>
+        <v>7.66</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>119.33</v>
+        <v>8.06</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.9</v>
+        <v>1.08</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>118.33</v>
+        <v>6.83</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>117.33</v>
+        <v>5.77</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>104.7</v>
+        <v>4.98</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.03</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>115.22</v>
+        <v>4.44</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>114.22</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>101.9</v>
+        <v>2.65</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>112.11</v>
+        <v>1.55</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>111.11</v>
+        <v>0.57</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,16 +1090,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>110.11</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1147,16 +1147,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>109.11</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.07</v>
+        <v>0.99</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1204,16 +1204,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>108.11</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.87</v>
+        <v>1.18</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1261,16 +1261,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>120.5</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>106.22</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1375,16 +1375,16 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>118.38</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0.99</v>
+        <v>1.14</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>1649</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>922</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>502</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>82</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Forecast Comparison" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Forecast Comparison" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,12 +492,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7.66</v>
+        <v>19.33</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.18</v>
+        <v>0.96</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -549,12 +549,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8.06</v>
+        <v>18.07</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -606,12 +606,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6.83</v>
+        <v>16.9</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -663,12 +663,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5.77</v>
+        <v>15.94</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -720,12 +720,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4.98</v>
+        <v>14.94</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -777,12 +777,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4.44</v>
+        <v>14.02</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -834,12 +834,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>12.98</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.84</v>
+        <v>1.11</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -891,12 +891,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2.65</v>
+        <v>12.22</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.15</v>
+        <v>0.93</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -948,12 +948,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1.55</v>
+        <v>11.41</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1005,12 +1005,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W23</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.57</v>
+        <v>10.41</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.97</v>
+        <v>1.06</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1062,12 +1062,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,16 +1090,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>9.44</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1119,12 +1119,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1147,16 +1147,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1176,12 +1176,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1204,16 +1204,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.51</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.18</v>
+        <v>1.02</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1233,12 +1233,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>W27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1261,16 +1261,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>6.41</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1290,12 +1290,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>W28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>5.37</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1347,12 +1347,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W25</t>
+          <t>W29</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1375,16 +1375,16 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-02-23</t>
+          <t>2022-12-25 to 2025-03-23</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>316</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15587 units</t>
+          <t>15937 units</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1649</t>
+          <t>1175</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>580</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>290</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>69</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0BH6XND27_WITH_PO.xlsx
@@ -492,12 +492,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>19.33</v>
+        <v>36.36</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -549,12 +549,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>18.07</v>
+        <v>31.34</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.18</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -606,12 +606,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>16.9</v>
+        <v>29.95</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -663,12 +663,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>15.94</v>
+        <v>30.21</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.92</v>
+        <v>1.13</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -720,12 +720,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>14.94</v>
+        <v>25.67</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -777,12 +777,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>14.02</v>
+        <v>25.91</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.09</v>
+        <v>0.85</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -834,12 +834,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>12.98</v>
+        <v>28.14</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.11</v>
+        <v>0.8</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -891,12 +891,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>12.22</v>
+        <v>23.74</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.93</v>
+        <v>1.02</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -948,12 +948,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W32</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>11.41</v>
+        <v>22.46</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1005,12 +1005,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>W33</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10.41</v>
+        <v>21.99</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1062,12 +1062,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>W34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9.44</v>
+        <v>22.28</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1119,12 +1119,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W25</t>
+          <t>W35</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8.460000000000001</v>
+        <v>21.83</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1176,12 +1176,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W26</t>
+          <t>W36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7.51</v>
+        <v>18.78</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.02</v>
+        <v>0.87</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1233,12 +1233,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W27</t>
+          <t>W37</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6.41</v>
+        <v>21.89</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1290,12 +1290,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W28</t>
+          <t>W38</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5.37</v>
+        <v>20.98</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1347,12 +1347,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W29</t>
+          <t>W39</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2.98</v>
+        <v>20.06</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-03-23</t>
+          <t>2022-12-25 to 2025-06-01</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>328</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>136</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15937 units</t>
+          <t>16338 units</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>636</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>323</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>156</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>35</t>
         </is>
       </c>
     </row>
